--- a/Tools/Luban/Datas/_Tables.xlsx
+++ b/Tools/Luban/Datas/_Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5575EF6F-5535-4125-A515-75AD4D63A5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6305D0FA-7E18-4FFC-BB98-189683C90285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>TbConstants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characters.TbCharacters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characters.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +520,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -629,6 +641,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E10" s="5"/>
     </row>

--- a/Tools/Luban/Datas/_Tables.xlsx
+++ b/Tools/Luban/Datas/_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6305D0FA-7E18-4FFC-BB98-189683C90285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B13BBD-7F80-47FC-92B0-A2559414F20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>CharacterInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps.TbMaps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +532,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -655,6 +667,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E10" s="5"/>
     </row>

--- a/Tools/Luban/Datas/_Tables.xlsx
+++ b/Tools/Luban/Datas/_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B13BBD-7F80-47FC-92B0-A2559414F20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFE097E-9936-4152-86B0-8A20E8BC07E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>Maps.TbMaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbItems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +544,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -681,6 +693,20 @@
         <v>35</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E10" s="5"/>
     </row>

--- a/Tools/Luban/Datas/_Tables.xlsx
+++ b/Tools/Luban/Datas/_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFE097E-9936-4152-86B0-8A20E8BC07E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5862EA29-DA9C-4866-9F83-DE2B93D2423C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,14 @@
   </si>
   <si>
     <t>Items.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobs.TbMobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobs.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +552,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -707,6 +715,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E10" s="5"/>
     </row>

--- a/Tools/Luban/Datas/_Tables.xlsx
+++ b/Tools/Luban/Datas/_Tables.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5862EA29-DA9C-4866-9F83-DE2B93D2423C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D564D-D8CC-4C6B-A928-D96DC53B0972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -151,15 +164,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mobs.TbMobs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mobs.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbAffixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affixes.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AffixTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbEquipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment@Items.xlsx</t>
+  </si>
+  <si>
+    <t>Items@Items.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,14 +584,14 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.21875" style="3" customWidth="1"/>
     <col min="6" max="9" width="18" style="1" customWidth="1"/>
@@ -709,15 +741,15 @@
         <v>38</v>
       </c>
       <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -726,14 +758,42 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="E10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{B8060B7E-0365-47D6-A88C-BA23305A7380}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Tools/Luban/Datas/_Tables.xlsx
+++ b/Tools/Luban/Datas/_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490D564D-D8CC-4C6B-A928-D96DC53B0972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC065B13-0454-4DA0-BF89-A9670D0EC75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -172,14 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items.TbAffixes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Affixes.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AffixTemplate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +184,70 @@
   </si>
   <si>
     <t>Items@Items.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbChestAffixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbGloveAffixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbHelmtAffixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbPantsAffixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbBootsAffixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbWeaponAffixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbAmuletAffixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.TbRingAffixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChestAffixes@Affixes.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GloveAffixes@Affixes.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelmtAffixes@Affixes.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PantsAffixes@Affixes.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BootsAffixes@Affixes.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponAffixes@Affixes.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmuletAffixes@Affixes.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RingAffixes@Affixes.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -744,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -763,36 +819,143 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{B8060B7E-0365-47D6-A88C-BA23305A7380}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{F6D089DD-7348-432D-9939-1FD8D56FEF2F}"/>
+    <hyperlink ref="E11:E17" r:id="rId3" display="ChestAffixes@Affixes.xlsx" xr:uid="{B8103F93-E96C-4F3B-8EDD-BE6DC19FFBF3}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{7EC40307-7C9F-4E8F-9593-962B3277FD48}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{133B820F-BF72-43FC-B605-6F5CC539E13F}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{F1524BF0-77D1-4A1E-AA87-E9CB13E37AE1}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{A0DD67E5-9058-428D-B067-C40DB4D9934F}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{225C995B-17E4-4A59-A324-884D3FA37D14}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{63F90A76-8F0F-4B57-BB95-5B63415831C6}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{46EBD361-EFF3-497F-91C6-CC34F402BCD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
